--- a/files/menus/the_roost/sides_theroost.xlsx
+++ b/files/menus/the_roost/sides_theroost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\the_roost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1B7EC0-40FE-4993-B546-CC740254E795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B25921-CDFF-4930-8753-F7FB51AE3DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="2265" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="12870" yWindow="420" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="displaycase_arrowsmith" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,9 +53,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>waffles</t>
-  </si>
-  <si>
     <t>Egg, Sausage</t>
   </si>
   <si>
@@ -102,6 +99,15 @@
   </si>
   <si>
     <t>Mixed Greens, Tomato, Cucumber</t>
+  </si>
+  <si>
+    <t>28% MF Milk / Enzymes / Salt</t>
+  </si>
+  <si>
+    <t>Milk.</t>
+  </si>
+  <si>
+    <t>placeholder</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -511,90 +517,90 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/the_roost/sides_theroost.xlsx
+++ b/files/menus/the_roost/sides_theroost.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\the_roost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B25921-CDFF-4930-8753-F7FB51AE3DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1888F-3DF7-4890-A416-5362899B1ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="420" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="1395" yWindow="2100" windowWidth="23700" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
-    <sheet name="displaycase_arrowsmith" sheetId="1" r:id="rId1"/>
+    <sheet name="sides_theroost" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,27 +53,9 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Egg, Sausage</t>
-  </si>
-  <si>
-    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
-  </si>
-  <si>
     <t>Allergens</t>
   </si>
   <si>
-    <t>Wheat, sulphites, egg.</t>
-  </si>
-  <si>
-    <t>No known priority allergens</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
     <t>GF,VEG</t>
   </si>
   <si>
@@ -83,38 +65,56 @@
     <t>LeaveEmpty</t>
   </si>
   <si>
-    <t>GF,VGN</t>
-  </si>
-  <si>
     <t>Fries</t>
   </si>
   <si>
-    <t>Salad</t>
-  </si>
-  <si>
     <t>Coleslaw</t>
   </si>
   <si>
     <t>Cheese Curds</t>
   </si>
   <si>
-    <t>Mixed Greens, Tomato, Cucumber</t>
-  </si>
-  <si>
-    <t>28% MF Milk / Enzymes / Salt</t>
-  </si>
-  <si>
     <t>Milk.</t>
   </si>
   <si>
     <t>placeholder</t>
+  </si>
+  <si>
+    <t>McCain Gold Crisp Fries[Potatoes, canola oil, wheat flour, modified corn starch, corn flour, salt, autolyzed yeast, baking powder, sodium phosphate, dextrose, modified cellulose, colour]</t>
+  </si>
+  <si>
+    <t>Wheat.</t>
+  </si>
+  <si>
+    <t>Chef's Salad</t>
+  </si>
+  <si>
+    <t>Item will vary daily - find information in the cafeteria.</t>
+  </si>
+  <si>
+    <t>29% MF Milk / Enzymes / Salt</t>
+  </si>
+  <si>
+    <t>VGN,DF</t>
+  </si>
+  <si>
+    <t>Green Cabbage / Red Cabbage / Shredded Carrot / Coleslaw Dressing</t>
+  </si>
+  <si>
+    <t>Eggs, mustard.</t>
+  </si>
+  <si>
+    <t>Daily Soup</t>
+  </si>
+  <si>
+    <t>House_Salad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +124,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,10 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,8 +182,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
@@ -484,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -508,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -517,90 +527,110 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
